--- a/UseCaseScenarij/NarucivanjeProizvoda.xlsx
+++ b/UseCaseScenarij/NarucivanjeProizvoda.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Naručivanje proizvoda</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Korisnik naručuje artikal</t>
   </si>
   <si>
-    <t>Alternativni tok</t>
-  </si>
-  <si>
     <t>Narudžba nije uspješna</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>4. Provjera količine novca na korisničkom računu</t>
   </si>
   <si>
-    <t>5. Obavještavanje korisnika o uspješnoj kupovini</t>
-  </si>
-  <si>
     <t>Artikal nije na stanju</t>
   </si>
   <si>
@@ -126,13 +120,49 @@
     <t>2. Upozoravanje korisnika o problemu</t>
   </si>
   <si>
-    <t>6. Ažuriranje kupovine na korisničkom računu</t>
-  </si>
-  <si>
     <t>3. Nastavak na koraku 2. ili odustajanje od kupovine</t>
   </si>
   <si>
     <t>3. Nastavak na koraku 2 ili odustajanje od kupovine</t>
+  </si>
+  <si>
+    <t>5. Odabir licnog preuzimanja ili kucne dostave</t>
+  </si>
+  <si>
+    <t>8. Obavještavanje korisnika o uspješnoj kupovini</t>
+  </si>
+  <si>
+    <t>9. Ažuriranje kupovine na korisničkom računu</t>
+  </si>
+  <si>
+    <t>10. Ažuriranje baze podataka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternativni tok </t>
+  </si>
+  <si>
+    <t>Alternativni tok 3.</t>
+  </si>
+  <si>
+    <t>Korisnik odabrao licno preuzimanje</t>
+  </si>
+  <si>
+    <t>Na koraku 4. glavnog toka, korisnik odabrao licno preuzimanje proizvoda</t>
+  </si>
+  <si>
+    <t>1. Odabrano lično preuzimanje</t>
+  </si>
+  <si>
+    <t>2. Obavještavanje korisnika o uspješnoj kupovini</t>
+  </si>
+  <si>
+    <t>3. Ažuriranje kupovine na krosiničkom računu</t>
+  </si>
+  <si>
+    <t>4. Ažuriranje baze podataka</t>
+  </si>
+  <si>
+    <t>11. Slanje podataka o dostavi dostavljaču</t>
   </si>
 </sst>
 </file>
@@ -191,11 +221,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -205,11 +232,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,227 +518,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="2" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="6"/>
+      <c r="B41" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/UseCaseScenarij/NarucivanjeProizvoda.xlsx
+++ b/UseCaseScenarij/NarucivanjeProizvoda.xlsx
@@ -30,9 +30,6 @@
     <t>Opis</t>
   </si>
   <si>
-    <t>Korisnik ima mogućnost naručivanja artikla koji želi</t>
-  </si>
-  <si>
     <t>Preduvjeti</t>
   </si>
   <si>
@@ -144,12 +141,6 @@
     <t>Alternativni tok 3.</t>
   </si>
   <si>
-    <t>Korisnik odabrao licno preuzimanje</t>
-  </si>
-  <si>
-    <t>Na koraku 4. glavnog toka, korisnik odabrao licno preuzimanje proizvoda</t>
-  </si>
-  <si>
     <t>1. Odabrano lično preuzimanje</t>
   </si>
   <si>
@@ -163,6 +154,15 @@
   </si>
   <si>
     <t>11. Slanje podataka o dostavi dostavljaču</t>
+  </si>
+  <si>
+    <t>Na koraku 4. glavnog toka, korisnik odabrao lično preuzimanje proizvoda</t>
+  </si>
+  <si>
+    <t>Korisnik odabrao lično preuzimanje</t>
+  </si>
+  <si>
+    <t>Korisnik ima mogućnost naručivanja artikla koji želi i odabir lilnog preuzimanja ili kučne dostave</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,270 +545,270 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="4"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/UseCaseScenarij/NarucivanjeProizvoda.xlsx
+++ b/UseCaseScenarij/NarucivanjeProizvoda.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Naručivanje proizvoda</t>
   </si>
@@ -72,12 +72,6 @@
     <t>2. Izbor proizvoda</t>
   </si>
   <si>
-    <t>3. Provjera da li je artikal na stanju</t>
-  </si>
-  <si>
-    <t>4. Provjera količine novca na korisničkom računu</t>
-  </si>
-  <si>
     <t>Artikal nije na stanju</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>Preduvjet</t>
   </si>
   <si>
-    <t>Na koraku 3. glavnog toka, utvrđeno je da odabrani artikal nije na stanju</t>
-  </si>
-  <si>
     <t>Sistem MEDICA</t>
   </si>
   <si>
@@ -108,9 +99,6 @@
     <t>Preduvjet:</t>
   </si>
   <si>
-    <t>Na koraku 4. glavnog toka nije zadovoljena provjera</t>
-  </si>
-  <si>
     <t>1. Nema dovoljno novca na računu</t>
   </si>
   <si>
@@ -123,18 +111,6 @@
     <t>3. Nastavak na koraku 2 ili odustajanje od kupovine</t>
   </si>
   <si>
-    <t>5. Odabir licnog preuzimanja ili kucne dostave</t>
-  </si>
-  <si>
-    <t>8. Obavještavanje korisnika o uspješnoj kupovini</t>
-  </si>
-  <si>
-    <t>9. Ažuriranje kupovine na korisničkom računu</t>
-  </si>
-  <si>
-    <t>10. Ažuriranje baze podataka</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alternativni tok </t>
   </si>
   <si>
@@ -150,19 +126,46 @@
     <t>3. Ažuriranje kupovine na krosiničkom računu</t>
   </si>
   <si>
-    <t>4. Ažuriranje baze podataka</t>
-  </si>
-  <si>
-    <t>11. Slanje podataka o dostavi dostavljaču</t>
-  </si>
-  <si>
-    <t>Na koraku 4. glavnog toka, korisnik odabrao lično preuzimanje proizvoda</t>
-  </si>
-  <si>
     <t>Korisnik odabrao lično preuzimanje</t>
   </si>
   <si>
     <t>Korisnik ima mogućnost naručivanja artikla koji želi i odabir lilnog preuzimanja ili kučne dostave</t>
+  </si>
+  <si>
+    <t>Baza Podataka</t>
+  </si>
+  <si>
+    <t>3.Odabir ličnog preuzimanja ili kućne dostave</t>
+  </si>
+  <si>
+    <t>4. Provjera da li je artikal na stanju</t>
+  </si>
+  <si>
+    <t>5. Provjera količine novca na korisničkomračunu</t>
+  </si>
+  <si>
+    <t>6. Obavještavanje korisnika o uspješnoj kupovini</t>
+  </si>
+  <si>
+    <t>7. Ažuriranje kupovine na korisničkom računu</t>
+  </si>
+  <si>
+    <t>8.Ažuriranje podataka</t>
+  </si>
+  <si>
+    <t>9. Slanje podataka o dostavi dostavljaču</t>
+  </si>
+  <si>
+    <t>Na koraku 4. glavnog toka, utvrđeno je da odabrani artikal nije na stanju</t>
+  </si>
+  <si>
+    <t>Na koraku 5. glavnog toka nije zadovoljena provjera</t>
+  </si>
+  <si>
+    <t>4. Ažuriranje podataka</t>
+  </si>
+  <si>
+    <t>Na koraku 3. glavnog toka, korisnik odabrao lično preuzimanje proizvoda</t>
   </si>
 </sst>
 </file>
@@ -518,26 +521,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -545,15 +549,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -561,7 +565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -569,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -577,7 +581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -585,7 +589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -593,222 +597,245 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
